--- a/2011/zad4.xlsx
+++ b/2011/zad4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8C1AA-BE85-464B-BE55-06CC4FE54658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E7135F-A22F-427A-BE83-A1993260AD18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:V215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18949,23 +18949,23 @@
         <v>5572</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D131" si="18">30*15</f>
+        <f t="shared" ref="D68:D103" si="18">30*15</f>
         <v>450</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E131" si="19">C68-D68</f>
+        <f t="shared" ref="E68:E103" si="19">C68-D68</f>
         <v>5122</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F131" si="20">E68+600</f>
+        <f t="shared" ref="F68:F103" si="20">E68+600</f>
         <v>5722</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G131" si="21" xml:space="preserve"> ROUNDDOWN(3% * F68,0)</f>
+        <f t="shared" ref="G68:G103" si="21" xml:space="preserve"> ROUNDDOWN(3% * F68,0)</f>
         <v>171</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H131" si="22">F68-G68</f>
+        <f t="shared" ref="H68:H103" si="22">F68-G68</f>
         <v>5551</v>
       </c>
       <c r="K68">
@@ -19037,7 +19037,7 @@
         <v>40700</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C132" si="33">H68</f>
+        <f t="shared" ref="C69:C103" si="33">H68</f>
         <v>5551</v>
       </c>
       <c r="D69">
